--- a/inst/extdata/2drugs.xlsx
+++ b/inst/extdata/2drugs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathilde.robin\Documents\__Treatment resistance\Team tools\EDITH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathilde.robin\Documents\__Treatment resistance\Team tools\EDITH\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E6AB4-DF43-466F-B969-E1BA742C3E2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A44A84-EBCF-48BB-A298-8494A78B93B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>drugA</t>
   </si>
@@ -34,10 +34,7 @@
     <t>drugB</t>
   </si>
   <si>
-    <t>drugA_gem</t>
-  </si>
-  <si>
-    <t>drugB_carbo</t>
+    <t>drugC</t>
   </si>
 </sst>
 </file>
@@ -53,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,12 +69,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -91,14 +82,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,41 +369,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="E3" s="3">
         <v>2.5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -421,293 +428,403 @@
         <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>84.780739499999996</v>
+        <v>100.82348728965269</v>
       </c>
       <c r="D4" s="2">
-        <v>96.474634600000002</v>
+        <v>100.17901897601145</v>
       </c>
       <c r="E4" s="2">
-        <v>74.204643200000007</v>
+        <v>94.19978517722879</v>
       </c>
       <c r="F4" s="2">
-        <v>55.374032700000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83.566058002148225</v>
+      </c>
+      <c r="G4" s="1">
+        <v>39.312567132116001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>3.12</v>
+        <v>0.9375</v>
       </c>
       <c r="B5" s="2">
-        <v>119.604471</v>
+        <v>100.35803795202291</v>
       </c>
       <c r="C5" s="2">
-        <v>70.335339599999998</v>
+        <v>100.94880057286073</v>
       </c>
       <c r="D5" s="2">
-        <v>72.398968199999999</v>
+        <v>99.731471535982806</v>
       </c>
       <c r="E5" s="2">
-        <v>62.338779000000002</v>
+        <v>96.168993913354811</v>
       </c>
       <c r="F5" s="2">
-        <v>57.953568400000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79.77085571070532</v>
+      </c>
+      <c r="G5" s="1">
+        <v>14.80486931614751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>6.25</v>
+        <v>1.875</v>
       </c>
       <c r="B6" s="2">
-        <v>114.44540000000001</v>
+        <v>101.32474042248478</v>
       </c>
       <c r="C6" s="2">
-        <v>69.1315563</v>
+        <v>101.41424991049051</v>
       </c>
       <c r="D6" s="2">
-        <v>72.312983700000004</v>
+        <v>98.585750089509474</v>
       </c>
       <c r="E6" s="2">
-        <v>60.533104000000002</v>
+        <v>91.245972073039724</v>
       </c>
       <c r="F6" s="2">
-        <v>52.622527900000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58.807733619763688</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10.562119584675976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>12.5</v>
+        <v>3.75</v>
       </c>
       <c r="B7" s="2">
-        <v>108.426483</v>
+        <v>100.2327246688149</v>
       </c>
       <c r="C7" s="2">
-        <v>69.1315563</v>
+        <v>98.890082348728953</v>
       </c>
       <c r="D7" s="2">
-        <v>81.599312100000006</v>
+        <v>92.821339061940563</v>
       </c>
       <c r="E7" s="2">
-        <v>54.514187499999998</v>
+        <v>77.389903329752954</v>
       </c>
       <c r="F7" s="2">
-        <v>57.523645700000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34.461152882205511</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.4983888292158971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="B8" s="2">
-        <v>72.828890799999996</v>
+        <v>97.457930540637307</v>
       </c>
       <c r="C8" s="2">
-        <v>57.093723099999998</v>
+        <v>90.297171500179019</v>
       </c>
       <c r="D8" s="2">
-        <v>54.944110100000003</v>
+        <v>75.00895094880056</v>
       </c>
       <c r="E8" s="2">
-        <v>44.196044700000002</v>
+        <v>46.688148943788036</v>
       </c>
       <c r="F8" s="2">
-        <v>42.562338799999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.592552810597923</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.5495882563551735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>35.855545999999997</v>
+        <v>84.300035803795197</v>
       </c>
       <c r="C9" s="2">
-        <v>33.018056799999997</v>
+        <v>60.38310060866452</v>
       </c>
       <c r="D9" s="2">
-        <v>33.619948399999998</v>
+        <v>41.335481561045469</v>
       </c>
       <c r="E9" s="2">
-        <v>28.374892500000001</v>
+        <v>18.868600071607592</v>
       </c>
       <c r="F9" s="2">
-        <v>28.460877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.3984962406015029</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.2810597923379881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>47.010383100608664</v>
+      </c>
+      <c r="C10" s="2">
+        <v>27.78374507697816</v>
+      </c>
+      <c r="D10" s="2">
+        <v>19.584675975653415</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12.889366272824917</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.9484425349086996</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.8693161475116362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21.911922663802361</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15.377730039384174</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11.95846759756534</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10.38310060866452</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.644110275689223</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.9946294307196561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
         <v>100</v>
       </c>
-      <c r="B10" s="2">
-        <v>20.8082545</v>
-      </c>
-      <c r="C10" s="2">
-        <v>21.9260533</v>
-      </c>
-      <c r="D10" s="2">
-        <v>22.1840069</v>
-      </c>
-      <c r="E10" s="2">
-        <v>19.604471199999999</v>
-      </c>
-      <c r="F10" s="2">
-        <v>20.464316400000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>100</v>
-      </c>
-      <c r="C13" s="2">
-        <v>84.780739499999996</v>
-      </c>
-      <c r="D13" s="2">
-        <v>96.474634600000002</v>
-      </c>
-      <c r="E13" s="2">
-        <v>74.204643200000007</v>
-      </c>
-      <c r="F13" s="2">
-        <v>55.374032700000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>3.12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>119.604471</v>
-      </c>
       <c r="C14" s="2">
-        <v>70.335339599999998</v>
+        <v>100.82348728965269</v>
       </c>
       <c r="D14" s="2">
-        <v>72.398968199999999</v>
+        <v>100.17901897601145</v>
       </c>
       <c r="E14" s="2">
-        <v>62.338779000000002</v>
+        <v>94.19978517722879</v>
       </c>
       <c r="F14" s="2">
-        <v>57.953568400000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83.566058002148225</v>
+      </c>
+      <c r="G14" s="1">
+        <v>39.312567132116001</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>6.25</v>
+        <v>0.9375</v>
       </c>
       <c r="B15" s="2">
-        <v>114.44540000000001</v>
+        <v>100.35803795202291</v>
       </c>
       <c r="C15" s="2">
-        <v>69.1315563</v>
+        <v>100.94880057286073</v>
       </c>
       <c r="D15" s="2">
-        <v>72.312983700000004</v>
+        <v>99.731471535982806</v>
       </c>
       <c r="E15" s="2">
-        <v>60.533104000000002</v>
+        <v>96.168993913354811</v>
       </c>
       <c r="F15" s="2">
-        <v>52.622527900000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79.77085571070532</v>
+      </c>
+      <c r="G15" s="1">
+        <v>14.80486931614751</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>12.5</v>
+        <v>1.875</v>
       </c>
       <c r="B16" s="2">
-        <v>108.426483</v>
+        <v>101.32474042248478</v>
       </c>
       <c r="C16" s="2">
-        <v>69.1315563</v>
+        <v>101.41424991049051</v>
       </c>
       <c r="D16" s="2">
-        <v>81.599312100000006</v>
+        <v>98.585750089509474</v>
       </c>
       <c r="E16" s="2">
-        <v>54.514187499999998</v>
+        <v>91.245972073039724</v>
       </c>
       <c r="F16" s="2">
-        <v>57.523645700000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58.807733619763688</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10.562119584675976</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>25</v>
+        <v>3.75</v>
       </c>
       <c r="B17" s="2">
-        <v>72.828890799999996</v>
+        <v>100.2327246688149</v>
       </c>
       <c r="C17" s="2">
-        <v>57.093723099999998</v>
+        <v>98.890082348728953</v>
       </c>
       <c r="D17" s="2">
-        <v>54.944110100000003</v>
+        <v>92.821339061940563</v>
       </c>
       <c r="E17" s="2">
-        <v>44.196044700000002</v>
+        <v>77.389903329752954</v>
       </c>
       <c r="F17" s="2">
-        <v>42.562338799999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34.461152882205511</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6.4983888292158971</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>50</v>
+        <v>7.5</v>
       </c>
       <c r="B18" s="2">
-        <v>35.855545999999997</v>
+        <v>97.457930540637307</v>
       </c>
       <c r="C18" s="2">
-        <v>33.018056799999997</v>
+        <v>90.297171500179019</v>
       </c>
       <c r="D18" s="2">
-        <v>33.619948399999998</v>
+        <v>75.00895094880056</v>
       </c>
       <c r="E18" s="2">
-        <v>28.374892500000001</v>
+        <v>46.688148943788036</v>
       </c>
       <c r="F18" s="2">
-        <v>28.460877</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.592552810597923</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.5495882563551735</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>20.8082545</v>
+        <v>84.300035803795197</v>
       </c>
       <c r="C19" s="2">
-        <v>21.9260533</v>
+        <v>60.38310060866452</v>
       </c>
       <c r="D19" s="2">
-        <v>22.1840069</v>
+        <v>41.335481561045469</v>
       </c>
       <c r="E19" s="2">
-        <v>19.604471199999999</v>
+        <v>18.868600071607592</v>
       </c>
       <c r="F19" s="2">
-        <v>20.464316400000001</v>
+        <v>9.3984962406015029</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.2810597923379881</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2">
+        <v>47.010383100608664</v>
+      </c>
+      <c r="C20" s="2">
+        <v>27.78374507697816</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19.584675975653415</v>
+      </c>
+      <c r="E20" s="2">
+        <v>12.889366272824917</v>
+      </c>
+      <c r="F20" s="2">
+        <v>7.9484425349086996</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.8693161475116362</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1">
+        <v>21.911922663802361</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15.377730039384174</v>
+      </c>
+      <c r="D21" s="1">
+        <v>11.95846759756534</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10.38310060866452</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7.644110275689223</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4.9946294307196561</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +838,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,9 +848,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
